--- a/tmp/test.xlsx
+++ b/tmp/test.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+  <si>
+    <t>RELATÓRIO POR MÁQUINAS (17 de abril - 17 de junho)</t>
+  </si>
   <si>
     <t>Máquina</t>
   </si>
@@ -55,16 +58,34 @@
     <t>Gabine1</t>
   </si>
   <si>
+    <t>Parceria Pessoal</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Spots Solucoes</t>
+  </si>
+  <si>
     <t>Gabine2</t>
   </si>
   <si>
     <t>Gabine3</t>
+  </si>
+  <si>
+    <t>Maringlevers</t>
+  </si>
+  <si>
+    <t>Mister Gula</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="R$#,##0.00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
@@ -94,8 +115,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,75 +462,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="8" width="10" customWidth="1"/>
-    <col min="9" max="13" width="15" customWidth="1"/>
+    <col min="1" max="4" width="15" style="1" customWidth="1"/>
+    <col min="5" max="9" width="15" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20" style="1" customWidth="1"/>
+    <col min="11" max="13" width="15" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L2" t="s">
         <v>12</v>
       </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2">
+        <v>111</v>
+      </c>
+      <c r="F3" s="2">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="K3" s="2">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1600</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1.82</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2">
+        <v>54</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="K4" s="2">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1450</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.89</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1240</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>248</v>
+      </c>
+      <c r="J5" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="K5" s="2">
+        <v>45</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1245</v>
+      </c>
+      <c r="M5" s="2">
+        <v>20.33</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-  <headerFooter>
-    <firstHeader>Hello Exceljs</firstHeader>
-    <firstFooter>Hello World</firstFooter>
-  </headerFooter>
 </worksheet>
 </file>